--- a/StructureDefinition-be-observation.xlsx
+++ b/StructureDefinition-be-observation.xlsx
@@ -567,7 +567,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(Group|Device|Location|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
@@ -715,7 +715,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
+    <t xml:space="preserve">Reference(CareTeam|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
 </t>
   </si>
   <si>
